--- a/PBL2022_WEB01/00.日報/日報 (唐川遥).xlsx
+++ b/PBL2022_WEB01/00.日報/日報 (唐川遥).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="74">
   <si>
     <t>氏名</t>
   </si>
@@ -245,6 +245,15 @@
   </si>
   <si>
     <t>お疲れ様でした。スケジュールを管理した上、開発段階の活躍を期待しています。</t>
+  </si>
+  <si>
+    <t>開発</t>
+  </si>
+  <si>
+    <t>ヘッダーcssを修正する作業と、店舗一覧に出力する情報をデータベースから取ってくるようにした。また、今週の作業可能日を開発チームで共有し作業日を決めた。</t>
+  </si>
+  <si>
+    <t>データベース内の別のテーブルからの値をカウントしたり平均を出したりする部分で少し詰まったが、無事解決できた。これを調べたことでSQL文への理解が深まり今後の作業は今回よりスムーズに行く気がする。チームメンバーと日付の確認なども出来たので今週は頑張っていきたい。</t>
   </si>
 </sst>
 </file>
@@ -542,7 +551,36 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5581650" cy="3133725"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13847,10 +13885,10 @@
       <c r="A19" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
@@ -14931,7 +14969,7 @@
       </c>
       <c r="C4" s="7">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -14993,10 +15031,18 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="12">
+        <v>200.0</v>
+      </c>
+      <c r="D6" s="30">
+        <v>20.0</v>
+      </c>
+      <c r="E6" s="30">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10">
@@ -15083,7 +15129,9 @@
       <c r="A16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="22"/>
@@ -15092,7 +15140,9 @@
       <c r="A17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
@@ -15101,7 +15151,9 @@
       <c r="A18" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="22"/>
@@ -15110,7 +15162,9 @@
       <c r="A19" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="29"/>
+      <c r="B19" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="22"/>
